--- a/station/station_1.xlsx
+++ b/station/station_1.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" s="14" t="inlineStr">
         <is>
-          <t>Fa</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H5" s="14" t="inlineStr">
@@ -667,7 +667,7 @@
           <t>AISLE 8</t>
         </is>
       </c>
-      <c r="Q7" s="21" t="n"/>
+      <c r="Q7" s="21" t="inlineStr"/>
       <c r="U7" s="14" t="inlineStr">
         <is>
           <t>F</t>
@@ -896,7 +896,7 @@
       </c>
       <c r="N15" s="24" t="inlineStr">
         <is>
-          <t>EV</t>
+          <t>abid</t>
         </is>
       </c>
       <c r="P15" s="24" t="inlineStr">
@@ -1509,7 +1509,11 @@
         </is>
       </c>
       <c r="H30" s="21" t="n"/>
-      <c r="I30" s="19" t="n"/>
+      <c r="I30" s="19" t="inlineStr">
+        <is>
+          <t>S.SONIs</t>
+        </is>
+      </c>
       <c r="K30" s="19" t="n"/>
       <c r="U30" s="32" t="inlineStr">
         <is>
